--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1147.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1147.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.713846102180033</v>
+        <v>1.160006403923035</v>
       </c>
       <c r="B1">
-        <v>2.437253105964631</v>
+        <v>2.407143831253052</v>
       </c>
       <c r="C1">
-        <v>2.674046363759869</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.302351433792079</v>
+        <v>2.384583950042725</v>
       </c>
       <c r="E1">
-        <v>1.812021545558308</v>
+        <v>1.229294657707214</v>
       </c>
     </row>
   </sheetData>
